--- a/Kalkulator.xlsx
+++ b/Kalkulator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marvin\git\ACCBid-Mobile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marvin\Documents\GitHub\ACCBid-Mobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C3C9BE7-E15E-4C78-96F1-6FF6008388BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F476AD-74C5-435D-A7C5-381306D8E5DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{26F2FF05-FE82-4940-8AD8-8C46AA6E486D}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>HargaUnit</t>
   </si>
@@ -38,9 +38,6 @@
     <t>varPeriode</t>
   </si>
   <si>
-    <t>UangMuka</t>
-  </si>
-  <si>
     <t>varAreaPengajuan</t>
   </si>
   <si>
@@ -63,6 +60,36 @@
   </si>
   <si>
     <t>Tidak</t>
+  </si>
+  <si>
+    <t>FATMAWATI</t>
+  </si>
+  <si>
+    <t>Kredit</t>
+  </si>
+  <si>
+    <t>Ya</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Detail</t>
+  </si>
+  <si>
+    <t>Berhasil</t>
+  </si>
+  <si>
+    <t>Uang Muka Harus 20%</t>
+  </si>
+  <si>
+    <t>UangMukaRP</t>
+  </si>
+  <si>
+    <t>UangMukaPersen</t>
   </si>
 </sst>
 </file>
@@ -414,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51EFD747-7C62-432A-8D02-0C80142E78CD}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,9 +456,12 @@
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" customWidth="1"/>
     <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+    <col min="10" max="10" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,42 +469,89 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1200000</v>
       </c>
       <c r="B2">
         <v>36</v>
       </c>
-      <c r="C2">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>300000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1200000</v>
+      </c>
+      <c r="B3">
+        <v>60</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>100000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Kalkulator.xlsx
+++ b/Kalkulator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marvin\Documents\GitHub\ACCBid-Mobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F476AD-74C5-435D-A7C5-381306D8E5DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06E5ADB-4DAC-44D7-AF37-F33BAF2A2D7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{26F2FF05-FE82-4940-8AD8-8C46AA6E486D}"/>
   </bookViews>
@@ -62,9 +62,6 @@
     <t>Tidak</t>
   </si>
   <si>
-    <t>FATMAWATI</t>
-  </si>
-  <si>
     <t>Kredit</t>
   </si>
   <si>
@@ -90,6 +87,9 @@
   </si>
   <si>
     <t>UangMukaPersen</t>
+  </si>
+  <si>
+    <t>BINTARO</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,10 +469,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -487,10 +487,10 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -516,10 +516,10 @@
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -539,19 +539,19 @@
         <v>6</v>
       </c>
       <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
